--- a/biology/Zoologie/Globodera/Globodera.xlsx
+++ b/biology/Zoologie/Globodera/Globodera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Globodera est un genre de nématodes, un embranchement de vers non segmentés, recouverts d'une épaisse cuticule et menant une vie libre ou parasitaire.
 Les nématodes du genre Globodera sont des endoparasites de plantes, qui causent des dommages racinaires à l'image du Nématode à kystes de la pomme de terre, Globodera pallida. 
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (7 mars 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (7 mars 2020) :
 Globodera artemisiae (Eroshenko &amp; Kazachenko, 1972) Behrens, 1975
 Globodera bravoae Franco, Cid del Prado &amp; Lamothe-Argumedo, 2000
 Globodera leptonepia (Cobb &amp; Taylor, 1953) Skarbilovich, 1959
